--- a/数据整理/stocks/港股/03383-雅居乐集团.xlsx
+++ b/数据整理/stocks/港股/03383-雅居乐集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.48</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -762,25 +862,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.40</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.34</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03383-雅居乐集团.xlsx
+++ b/数据整理/stocks/港股/03383-雅居乐集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,248 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03383-雅居乐集团.xlsx
+++ b/数据整理/stocks/港股/03383-雅居乐集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1256,4 +1257,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03383-雅居乐集团.xlsx
+++ b/数据整理/stocks/港股/03383-雅居乐集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1465,4 +1466,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03383-雅居乐集团.xlsx
+++ b/数据整理/stocks/港股/03383-雅居乐集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1474,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,17 +1486,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1505,14 +1526,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -1521,14 +1564,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -1537,14 +1670,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1553,13 +1686,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03383-雅居乐集团.xlsx
+++ b/数据整理/stocks/港股/03383-雅居乐集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1607,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,17 +1619,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1638,14 +1659,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1654,14 +1697,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1670,14 +1803,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1686,14 +1819,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -1702,13 +1835,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03383-雅居乐集团.xlsx
+++ b/数据整理/stocks/港股/03383-雅居乐集团.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0865</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -791,226 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1075,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1113,148 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0484</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,7 +1081,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1527,36 +1111,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1565,36 +1149,148 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>501308</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1325,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1659,36 +1355,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1697,36 +1393,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>501308</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1740,128 +1626,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1</v>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>